--- a/MyEPA/FileDatas/Template/(範本)簡報產製2_台灣地圖.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製2_台灣地圖.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F97FF5-D47B-4F9C-935D-C1178DAC8B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6B31AC-6FAF-4CD9-A7E7-A39EFAAE13F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -854,168 +854,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中彰投地區：</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>消毒設備</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>590</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>消毒藥劑固態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1,844</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公斤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>液態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>31,549</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -1862,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF11314-0B25-4F75-AE66-3F972F6033E3}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -2009,26 +1847,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MyEPA/FileDatas/Template/(範本)簡報產製2_台灣地圖.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製2_台灣地圖.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA214AE3-DFF0-418C-934E-E002700FA81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58F0F88-11DC-4C8B-B47D-57E3992E965E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
@@ -60,250 +60,20 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>全國共有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3,408</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>臺環境消毒設備，液態環境消毒藥劑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>92,870</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公升，
-固態者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5,431.7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公斤。備有液態登革熱藥劑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>76,622.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公升，固態者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>12,604.23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公斤。</t>
+      <t>環境消毒藥劑跟登革熱藥劑分開</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>澎金馬地區：
-消毒設備</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>180</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>消毒藥劑固態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公斤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">)
-              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>液態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2,151</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>環境消毒藥劑跟登革熱藥劑合併</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,7 +96,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>601</t>
+      <t>[$OrA1$]</t>
     </r>
     <r>
       <rPr>
@@ -374,7 +144,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1,132</t>
+      <t>[$AntA1S$]</t>
     </r>
     <r>
       <rPr>
@@ -422,7 +192,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>37,739</t>
+      <t>[$OrA1L$]</t>
     </r>
     <r>
       <rPr>
@@ -473,7 +243,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>291</t>
+      <t>[$OrA2$]</t>
     </r>
     <r>
       <rPr>
@@ -521,7 +291,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>341</t>
+      <t>[$AntA2S$]</t>
     </r>
     <r>
       <rPr>
@@ -569,7 +339,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>29,235</t>
+      <t>[$OrA2L$]</t>
     </r>
     <r>
       <rPr>
@@ -610,7 +380,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>花東地區：
+      <t>中彰投地區：
 消毒設備</t>
     </r>
     <r>
@@ -620,7 +390,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>300</t>
+      <t>[$OrA3$]</t>
     </r>
     <r>
       <rPr>
@@ -668,7 +438,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>10</t>
+      <t>[$AntA3S$]</t>
     </r>
     <r>
       <rPr>
@@ -716,7 +486,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>4,314</t>
+      <t>[$OrA3L$]</t>
     </r>
     <r>
       <rPr>
@@ -757,7 +527,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>中彰投地區：
+      <t>雲嘉南地區：
 消毒設備</t>
     </r>
     <r>
@@ -767,7 +537,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>590</t>
+      <t>[$OrA4$]</t>
     </r>
     <r>
       <rPr>
@@ -815,7 +585,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1,844</t>
+      <t>[$AntA4S$]</t>
     </r>
     <r>
       <rPr>
@@ -863,7 +633,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>31,549</t>
+      <t>[$OrA4L$]</t>
     </r>
     <r>
       <rPr>
@@ -904,17 +674,26 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>雲嘉南地區：
+      <t>高屏地區：
 消毒設備</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>539(</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$OrA5$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -949,11 +728,20 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3,301(</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$AntA5S$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -988,11 +776,20 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>31,329(</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$OrA5L$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -1024,7 +821,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>高屏地區：
+      <t>花東地區：
 消毒設備</t>
     </r>
     <r>
@@ -1034,7 +831,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>795</t>
+      <t>[$OrA6$]</t>
     </r>
     <r>
       <rPr>
@@ -1082,7 +879,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>11,554</t>
+      <t>[$AntA6S$]</t>
     </r>
     <r>
       <rPr>
@@ -1130,7 +927,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>33,607</t>
+      <t>[$OrA6L$]</t>
     </r>
     <r>
       <rPr>
@@ -1165,13 +962,147 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>環境消毒藥劑跟登革熱藥劑分開</t>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>澎金馬地區：
+消毒設備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$OrA7$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>消毒藥劑固態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$AntA7S$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公斤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>液態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$OrA7L$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1184,7 +1115,103 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>環境消毒藥劑跟登革熱藥劑合併</t>
+      <t>全國共有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3,408</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>臺環境消毒設備，液態環境消毒藥劑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$ValEnvS$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公升，
+固態者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$ValEnvL$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公斤。備有液態登革熱藥劑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$ValDengueS$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公升，固態者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$VaDenguelL$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公斤。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1193,7 +1220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1262,6 +1289,20 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1291,7 +1332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1307,14 +1348,17 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1322,17 +1366,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1726,14 +1770,14 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.36328125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1744,166 +1788,166 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="10"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="10"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="7"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="7"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="10"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="3"/>
     </row>
   </sheetData>

--- a/MyEPA/FileDatas/Template/(範本)簡報產製2_台灣地圖.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製2_台灣地圖.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58F0F88-11DC-4C8B-B47D-57E3992E965E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9094B0-60B8-4ECE-B59D-735FE3EBAC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
@@ -80,147 +80,109 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>北基宜地區：
-消毒設備</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$OrA1$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>消毒藥劑固態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$AntA1S$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公斤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">)
-              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>液態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$OrA1L$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>全國共有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3,408</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>臺環境消毒設備，液態環境消毒藥劑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$ValEnvS$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公升，
+固態者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$ValEnvL$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公斤。備有液態登革熱藥劑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$ValDengueS$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公升，固態者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$VaDenguelL$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公斤。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,7 +195,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>桃竹苗地區：
+      <t>澎金馬地區：
 消毒設備</t>
     </r>
     <r>
@@ -243,7 +205,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA2$]</t>
+      <t>[$OrA7$]</t>
     </r>
     <r>
       <rPr>
@@ -291,7 +253,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA2S$]</t>
+      <t>[$AntA7S$]</t>
     </r>
     <r>
       <rPr>
@@ -339,7 +301,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA2L$]</t>
+      <t>[$AntA7L$]</t>
     </r>
     <r>
       <rPr>
@@ -380,7 +342,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>中彰投地區：
+      <t>北基宜地區：
 消毒設備</t>
     </r>
     <r>
@@ -390,7 +352,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA3$]</t>
+      <t>[$OrA1$]</t>
     </r>
     <r>
       <rPr>
@@ -438,7 +400,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA3S$]</t>
+      <t>[$AntA1S$]</t>
     </r>
     <r>
       <rPr>
@@ -486,16 +448,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA3L$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
+      <t>[$AntA1L$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
@@ -527,7 +489,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>雲嘉南地區：
+      <t>花東地區：
 消毒設備</t>
     </r>
     <r>
@@ -537,7 +499,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA4$]</t>
+      <t>[$OrA6$]</t>
     </r>
     <r>
       <rPr>
@@ -585,7 +547,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA4S$]</t>
+      <t>[$AntA6S$]</t>
     </r>
     <r>
       <rPr>
@@ -633,7 +595,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA4L$]</t>
+      <t>[$AntA6L$]</t>
     </r>
     <r>
       <rPr>
@@ -674,7 +636,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>高屏地區：
+      <t>桃竹苗地區：
 消毒設備</t>
     </r>
     <r>
@@ -684,7 +646,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA5$]</t>
+      <t>[$OrA2$]</t>
     </r>
     <r>
       <rPr>
@@ -732,7 +694,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA5S$]</t>
+      <t>[$AntA2S$]</t>
     </r>
     <r>
       <rPr>
@@ -780,7 +742,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA5L$]</t>
+      <t>[$AntA2L$]</t>
     </r>
     <r>
       <rPr>
@@ -821,7 +783,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>花東地區：
+      <t>中彰投地區：
 消毒設備</t>
     </r>
     <r>
@@ -831,7 +793,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA6$]</t>
+      <t>[$OrA3$]</t>
     </r>
     <r>
       <rPr>
@@ -879,7 +841,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA6S$]</t>
+      <t>[$AntA3S$]</t>
     </r>
     <r>
       <rPr>
@@ -927,7 +889,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA6L$]</t>
+      <t>[$AntA3L$]</t>
     </r>
     <r>
       <rPr>
@@ -968,7 +930,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>澎金馬地區：
+      <t>雲嘉南地區：
 消毒設備</t>
     </r>
     <r>
@@ -978,7 +940,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA7$]</t>
+      <t>[$OrA4$]</t>
     </r>
     <r>
       <rPr>
@@ -1026,7 +988,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA7S$]</t>
+      <t>[$AntA4S$]</t>
     </r>
     <r>
       <rPr>
@@ -1074,7 +1036,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA7L$]</t>
+      <t>[$AntA4L$]</t>
     </r>
     <r>
       <rPr>
@@ -1109,109 +1071,147 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>全國共有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3,408</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>臺環境消毒設備，液態環境消毒藥劑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$ValEnvS$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公升，
-固態者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$ValEnvL$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公斤。備有液態登革熱藥劑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$ValDengueS$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公升，固態者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$VaDenguelL$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公斤。</t>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>高屏地區：
+消毒設備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$OrA5$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>消毒藥劑固態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$AntA5S$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公斤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>液態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$AntA5L$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1348,6 +1348,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1360,22 +1363,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1770,7 +1770,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1788,166 +1788,166 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="9"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="11"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="11"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="10"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="13" t="s">
-        <v>7</v>
-      </c>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="6"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="3"/>
     </row>
   </sheetData>

--- a/MyEPA/FileDatas/Template/(範本)簡報產製2_台灣地圖.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製2_台灣地圖.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9094B0-60B8-4ECE-B59D-735FE3EBAC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D468FAC8-BFF7-4B4A-BFF3-89AD1904B448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,109 +80,147 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>全國共有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3,408</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>臺環境消毒設備，液態環境消毒藥劑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$ValEnvS$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公升，
-固態者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$ValEnvL$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公斤。備有液態登革熱藥劑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$ValDengueS$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公升，固態者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$VaDenguelL$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公斤。</t>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>澎金馬地區：
+消毒設備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$OrA7$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>消毒藥劑固態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$AntA7S$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公斤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>液態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$AntA7L$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,7 +233,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>澎金馬地區：
+      <t>北基宜地區：
 消毒設備</t>
     </r>
     <r>
@@ -205,7 +243,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA7$]</t>
+      <t>[$OrA1$]</t>
     </r>
     <r>
       <rPr>
@@ -253,7 +291,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA7S$]</t>
+      <t>[$AntA1S$]</t>
     </r>
     <r>
       <rPr>
@@ -301,16 +339,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA7L$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
+      <t>[$AntA1L$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
@@ -342,7 +380,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>北基宜地區：
+      <t>花東地區：
 消毒設備</t>
     </r>
     <r>
@@ -352,7 +390,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA1$]</t>
+      <t>[$OrA6$]</t>
     </r>
     <r>
       <rPr>
@@ -400,7 +438,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA1S$]</t>
+      <t>[$AntA6S$]</t>
     </r>
     <r>
       <rPr>
@@ -448,16 +486,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA1L$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
+      <t>[$AntA6L$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -489,7 +527,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>花東地區：
+      <t>桃竹苗地區：
 消毒設備</t>
     </r>
     <r>
@@ -499,7 +537,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA6$]</t>
+      <t>[$OrA2$]</t>
     </r>
     <r>
       <rPr>
@@ -547,7 +585,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA6S$]</t>
+      <t>[$AntA2S$]</t>
     </r>
     <r>
       <rPr>
@@ -595,7 +633,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA6L$]</t>
+      <t>[$AntA2L$]</t>
     </r>
     <r>
       <rPr>
@@ -636,7 +674,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>桃竹苗地區：
+      <t>中彰投地區：
 消毒設備</t>
     </r>
     <r>
@@ -646,7 +684,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA2$]</t>
+      <t>[$OrA3$]</t>
     </r>
     <r>
       <rPr>
@@ -694,7 +732,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA2S$]</t>
+      <t>[$AntA3S$]</t>
     </r>
     <r>
       <rPr>
@@ -742,7 +780,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA2L$]</t>
+      <t>[$AntA3L$]</t>
     </r>
     <r>
       <rPr>
@@ -783,7 +821,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>中彰投地區：
+      <t>雲嘉南地區：
 消毒設備</t>
     </r>
     <r>
@@ -793,7 +831,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA3$]</t>
+      <t>[$OrA4$]</t>
     </r>
     <r>
       <rPr>
@@ -841,7 +879,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA3S$]</t>
+      <t>[$AntA4S$]</t>
     </r>
     <r>
       <rPr>
@@ -889,7 +927,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA3L$]</t>
+      <t>[$AntA4L$]</t>
     </r>
     <r>
       <rPr>
@@ -930,7 +968,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>雲嘉南地區：
+      <t>高屏地區：
 消毒設備</t>
     </r>
     <r>
@@ -940,7 +978,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$OrA4$]</t>
+      <t>[$OrA5$]</t>
     </r>
     <r>
       <rPr>
@@ -988,7 +1026,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA4S$]</t>
+      <t>[$AntA5S$]</t>
     </r>
     <r>
       <rPr>
@@ -1036,7 +1074,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[$AntA4L$]</t>
+      <t>[$AntA5L$]</t>
     </r>
     <r>
       <rPr>
@@ -1077,141 +1115,103 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>高屏地區：
-消毒設備</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$OrA5$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>消毒藥劑固態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$AntA5S$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公斤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">)
-              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>液態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[$AntA5L$]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
+      <t>全國共有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3,408</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>臺環境消毒設備，液態環境消毒藥劑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$ValEnvL$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公升，
+固態者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$ValEnvS$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公斤。備有液態登革熱藥劑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$ValDengueL$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公升，固態者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$ValDengueS$]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公斤。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1220,7 +1220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1278,12 +1278,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -1291,13 +1285,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="4"/>
@@ -1332,7 +1319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1348,7 +1335,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1363,16 +1350,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1770,7 +1754,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1795,8 +1779,8 @@
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
+      <c r="A3" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1829,25 +1813,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="13" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
     </row>
@@ -1857,36 +1841,36 @@
     </row>
     <row r="12" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="13" t="s">
-        <v>6</v>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="18" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="4"/>
     </row>
@@ -1908,29 +1892,29 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="11"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="11"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="11"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="12"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="3"/>
     </row>
     <row r="30" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="4"/>
     </row>

--- a/MyEPA/FileDatas/Template/(範本)簡報產製2_台灣地圖.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製2_台灣地圖.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D468FAC8-BFF7-4B4A-BFF3-89AD1904B448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6235935-7F6D-4784-BC34-F0ED113F7A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
@@ -1120,11 +1120,11 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3,408</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[$ValOr$]</t>
     </r>
     <r>
       <rPr>
@@ -1350,14 +1350,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1754,7 +1754,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1779,7 +1779,7 @@
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="9"/>
@@ -1816,22 +1816,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
     </row>
@@ -1844,7 +1844,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="18" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
@@ -1897,19 +1897,19 @@
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="10"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="3"/>
     </row>
     <row r="30" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
